--- a/capacidad-instalada_v1_enpruebas.xlsx
+++ b/capacidad-instalada_v1_enpruebas.xlsx
@@ -5120,11 +5120,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V31" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V31" t="inlineStr"/>
       <c r="W31" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6490,11 +6486,7 @@
           <t>Si</t>
         </is>
       </c>
-      <c r="V40" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V40" t="inlineStr"/>
       <c r="W40" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6624,11 +6616,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V41" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V41" t="inlineStr"/>
       <c r="W41" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6758,11 +6746,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V42" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V42" t="inlineStr"/>
       <c r="W42" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -6892,11 +6876,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V43" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V43" t="inlineStr"/>
       <c r="W43" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7026,11 +7006,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V44" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V44" t="inlineStr"/>
       <c r="W44" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7160,11 +7136,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V45" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V45" t="inlineStr"/>
       <c r="W45" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7294,11 +7266,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V46" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V46" t="inlineStr"/>
       <c r="W46" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7428,11 +7396,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7562,11 +7526,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V48" t="inlineStr"/>
       <c r="W48" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7696,11 +7656,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V49" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V49" t="inlineStr"/>
       <c r="W49" t="inlineStr">
         <is>
           <t>NO APLICA</t>
@@ -7830,11 +7786,7 @@
           <t>No</t>
         </is>
       </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>Instalaciones de generación</t>
-        </is>
-      </c>
+      <c r="V50" t="inlineStr"/>
       <c r="W50" t="inlineStr">
         <is>
           <t>NO APLICA</t>
